--- a/data/trans_orig/iP30KDA4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6103B06-08E2-49F7-9374-52B3FAB7DC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{118AB3A7-CD8C-4798-88BE-11F6C40B6E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C839B69E-A48B-4379-96DA-F1BA0E0C985A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{890ACC57-1253-4288-B373-260A7F043512}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>Menores según si toman verduras frescas o cocinadas más de una vez al día en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,346 +65,277 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,8 +750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BEA2C1-1C5F-4A94-AE18-AE55120665B4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E34BCAB-8557-4EBA-81C2-3B97FACB518F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>3570</v>
+        <v>50411</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>3884</v>
+        <v>69037</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="N4" s="7">
-        <v>7454</v>
+        <v>119448</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +919,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>7827</v>
+        <v>63840</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +934,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="I5" s="7">
-        <v>12115</v>
+        <v>67778</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +949,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="N5" s="7">
-        <v>19941</v>
+        <v>131618</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +985,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1000,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1023,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7">
-        <v>56106</v>
+        <v>88303</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1038,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="I7" s="7">
-        <v>48420</v>
+        <v>133861</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1053,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="N7" s="7">
-        <v>104526</v>
+        <v>222165</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1074,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>56342</v>
+        <v>97811</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1089,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="I8" s="7">
-        <v>53215</v>
+        <v>113659</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1104,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="N8" s="7">
-        <v>109557</v>
+        <v>211469</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1140,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1155,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>134007</v>
+        <v>60553</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1193,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="I10" s="7">
-        <v>92286</v>
+        <v>57694</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1208,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="N10" s="7">
-        <v>226293</v>
+        <v>118247</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1229,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7">
-        <v>108906</v>
+        <v>127696</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1244,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I11" s="7">
-        <v>95631</v>
+        <v>125395</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1259,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N11" s="7">
-        <v>204537</v>
+        <v>253092</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1280,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1295,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1310,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,49 +1333,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7">
-        <v>54310</v>
+        <v>78796</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>116</v>
+      </c>
+      <c r="I13" s="7">
+        <v>85922</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>83</v>
-      </c>
-      <c r="I13" s="7">
-        <v>59754</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>229</v>
+      </c>
+      <c r="N13" s="7">
+        <v>164718</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>156</v>
-      </c>
-      <c r="N13" s="7">
-        <v>114064</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1384,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D14" s="7">
-        <v>116809</v>
+        <v>85723</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
+        <v>116</v>
+      </c>
+      <c r="I14" s="7">
+        <v>91387</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>140</v>
-      </c>
-      <c r="I14" s="7">
-        <v>106814</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>238</v>
+      </c>
+      <c r="N14" s="7">
+        <v>177110</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="7">
-        <v>287</v>
-      </c>
-      <c r="N14" s="7">
-        <v>223623</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1465,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1482,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>408</v>
       </c>
       <c r="D16" s="7">
-        <v>85151</v>
+        <v>278064</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>437</v>
+      </c>
+      <c r="I16" s="7">
+        <v>346514</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>845</v>
+      </c>
+      <c r="N16" s="7">
+        <v>624578</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>113</v>
-      </c>
-      <c r="I16" s="7">
-        <v>82398</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>229</v>
-      </c>
-      <c r="N16" s="7">
-        <v>167549</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1539,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>507</v>
       </c>
       <c r="D17" s="7">
-        <v>86305</v>
+        <v>375070</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>503</v>
+      </c>
+      <c r="I17" s="7">
+        <v>398219</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1010</v>
+      </c>
+      <c r="N17" s="7">
+        <v>773289</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>122</v>
-      </c>
-      <c r="I17" s="7">
-        <v>86092</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>238</v>
-      </c>
-      <c r="N17" s="7">
-        <v>172398</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1605,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1620,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1636,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>437</v>
-      </c>
-      <c r="D19" s="7">
-        <v>333145</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="7">
-        <v>408</v>
-      </c>
-      <c r="I19" s="7">
-        <v>286742</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>845</v>
-      </c>
-      <c r="N19" s="7">
-        <v>619886</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>503</v>
-      </c>
-      <c r="D20" s="7">
-        <v>376188</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>507</v>
-      </c>
-      <c r="I20" s="7">
-        <v>353867</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1010</v>
-      </c>
-      <c r="N20" s="7">
-        <v>730056</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
